--- a/pabi_budget_report/xlsx_template/xlsx_report_asset_item_plan_analysis.xlsx
+++ b/pabi_budget_report/xlsx_template/xlsx_report_asset_item_plan_analysis.xlsx
@@ -10,17 +10,17 @@
   <sheets>
     <sheet name="Asset Item Plan" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t xml:space="preserve">Financial Year</t>
   </si>
@@ -37,46 +37,115 @@
     <t xml:space="preserve">Responsible by</t>
   </si>
   <si>
-    <t xml:space="preserve">Investment Asset Planning</t>
+    <t xml:space="preserve">Invest Asset Plan</t>
   </si>
   <si>
     <t xml:space="preserve">Priority</t>
   </si>
   <si>
-    <t xml:space="preserve">Invest Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prev FY Actuals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current Budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current PR Commit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current EX Commit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current PO Commit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current Total Commit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current Actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current Budget Usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current Remaining Budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budget Carry Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next FY Commitment</t>
+    <t xml:space="preserve">Invest Asset Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invest Asset Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Common Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSTDA Strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSTDA Strategy Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Price (Incl.VAT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget Plan Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilization (Hr/Yr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary of Specification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous Year(s) Actual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Year Budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Year PR Commitment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Year PO Commitment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Year EX Commitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Year Total Commitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Year Actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Year Budget Usage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Year Remaining Budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carry Forward Budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Next Year Commitment</t>
   </si>
   <si>
     <t xml:space="preserve">Beyond Next FY Commitment</t>
@@ -89,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -110,6 +179,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -163,7 +239,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -187,40 +263,49 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -230,130 +315,275 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:AN1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="2" style="0" width="24.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="31.81"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="2" style="1" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="16" style="1" width="30.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="41" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+      <c r="AE5" s="0"/>
+      <c r="AF5" s="0"/>
+      <c r="AG5" s="0"/>
+      <c r="AH5" s="0"/>
+      <c r="AI5" s="0"/>
+      <c r="AJ5" s="0"/>
+      <c r="AK5" s="0"/>
+      <c r="AL5" s="0"/>
+      <c r="AM5" s="0"/>
+      <c r="AN5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+      <c r="AE6" s="0"/>
+      <c r="AF6" s="0"/>
+      <c r="AG6" s="0"/>
+      <c r="AH6" s="0"/>
+      <c r="AI6" s="0"/>
+      <c r="AJ6" s="0"/>
+      <c r="AK6" s="0"/>
+      <c r="AL6" s="0"/>
+      <c r="AM6" s="0"/>
+      <c r="AN6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
+      <c r="R7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1048523" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.3" right="0.3" top="0.609722222222222" bottom="0.370138888888889" header="0.511805555555555" footer="0.1"/>
